--- a/Project 요구사항 정의서_1조.xlsx
+++ b/Project 요구사항 정의서_1조.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rock0\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\예진\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80403C7-E673-4F9E-9D65-34343C98C4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7172804C-2BED-4468-8C8A-B009F16DA82E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="405" windowWidth="24195" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>요구사항 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,32 +141,12 @@
     <t>모든 데이터 소스는 SAP ERP 판매오더 조회화면에서 추출.</t>
   </si>
   <si>
-    <t>○ 매출액 : 대금청구서 기준 매출액 / 매출수량: 대금청구서의 기본 단위로 수량계산
-○ 기준기간 매출액 : 전년 / 전분기 / 전월 별 매출액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ 기준정보(제품 및 고객) 카테고리 분류 필터링
-○ 제품별/고객별 년, 분기, 월별 매출액 변화 추이
-○ 제품별/고객별 년, 분기, 월별 매출액 성장, 점유율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ 총시장규모 : 외부데이터 사용 , 업계의 총 매출규모 사용
-○ 자사의 시장 매출액점유율 : 1번의 점유율 데이터 사용 (시장점유율 = 자사매출액 / 총시장매출액)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>○ 대금청구액 통화는 USD
 ○ 제품별/고객별 년, 분기, 월별 매출액 변화 추이
 ○ 성장률이 - 라면 빨간색으로 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고객별 판매현황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>○ 매출액 : 대금청구서 기준 매출액 / 매출수량: 대금청구서의 기본 단위로 수량계산
 ○ 예상판매증가율 : 최근 3~5 년간의 매출실적 분석 -&gt; 예상 판매 증가율(x) 산출
 ○ 올해 예상판매증가율 = 전년도 판매실적 * 예상 판매증가율</t>
@@ -221,83 +201,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>○ 납기적중률 (시간) : '일자지연 수' 값을 기준으로 (판매계획일자 - 납품실제일자) 가 음수이면 Late, +a 일 일 경우 On-time, 그 이상은 Early로 구분하여 표현
-○ 납기적중률 (수량) : '납품수량적중률' 지표 값을 활용하여 Equal, less, more 구분하여 표현
-○ Delivery Precision : 기존 납품실적 데이터를 통해 추후 납기일정 준수여부를 판단하여 On-time, Not on-time 으로 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ 고객, 자재별 필터링 
-○ 년, 분기 월별 필터링 
-○ 납기 시간 적중률 :  수량 , 오더건수별 필터링
-○ 자재별 납기 수량 적중률 
-○ 자재별 납기 시간 적중률
-○ 자재별 납기 적중 수량 
-○ 자재별 지연율
-○ 자재별 납기준수율
-○ 고객별 납기 수량 적중률
-○ 고객별 납기 시간 적중률
-○ 고객별 납기 적중 수량
-○ 고객별 지연율
-○ 고객별 납기준수율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표 매출액 설정 1 -&gt; 전년도 매출실적 * (1 + 예상판매증가율)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표매출액 설정 2 -&gt; 총 시장 규모 * 자사의 시장점유율 목표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표판매 수량 설정 -&gt; (고정비 + 목표이익) / 단위당 공헌이익금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ 공헌이익 = 판매가격 - 변동원가 = [P(단가) - V(변동단가)] * Q (판매량)
-○ 목표이익 = 목표매출액 - 비용(자재 단가, 배송비, 인건비 등…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ 분석 Dimension : 제품군 (자재 마스터 내 제품군), 대금청구달력년월, 대금청구달력년분기, 대금청구달력년, 통화
-고객, 자재, 대금청구서번호, 대금청구서품목번호, 고객연락처, 고객주소, 고객국가, 대금청구달력년, 대금청구달력년분기, 대금청구달력년월, 실제 / 계획 구분자,  대금청구수량단위,  통화
-○ 판매오더 년별, 분기별, 월별로 세분화
-○ 기준정보 제품별, 고객별로 세분화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">데이터 소스는 SAP 대금청구서조회(VF03) 화면에서 추출하여 고객별 판매현황 기준으로 설정                              </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ ERP 시스템에서 MM에서 제품군데이터, 대금청구서의 매출액 데이터 추출
-○ 타사비교 자료는 엑셀로 사용 : 타사 제품군, 타사 제품군별 매출액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영역 : 영업3 - 시각화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매출액 성장률 : 기준기간 매출액 - 비교기간 매출액 / 비교기간 매출액 * 100  
-매출액 점유율 : 기준기간 기준정보 매출액 / 기준기간 기준정보 총 매출액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 매출구조의 트렌드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>납기수량적중률 (%) : 납품실제수량 / 납품수량 * 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납품수량적중률 (%) : 납품실제수량 / 판매수량 *100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납기문서적중률 (%) : 납기내 실제 납품된 딜리버리문서 개수 / 실제 납품된 딜리버리 개수 * 100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -343,16 +251,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>○ 판매수량 : 계획 납품 일자가 지난 판매 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ 납품 계획일자는 오더에서 가져옴
-○ 예외: 국내 제주도, 산간지방 +2 일 / Deep sea(해상운송) +5일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납기 시간조건 실적 Late 인 문서 건수 대비 전체 문서 건수</t>
+    <t>판매제품별 판매단가 인상/인하율 분석 및 목표 판매 계획 수립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 자사의 목표 매출액 산정 및 세부적으로 목표 매출액 및 목표 계획 제시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 분석 Dimension : 제품군 (자재 마스터 내 제품군), 외부데이터 사용
+○ 판매오더 년별, 분기별, 월별로 세분화
+○ 기준정보 제품별, 고객별로 세분화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -361,32 +270,112 @@
 ○ 수량 실적은 최종 완료된 오더 만을 사용하여 실적계산
 ○ 실제납품일자 값이 존재하는 오더 만을 사용하여 실적계산(계획 이후 납품이 이루어 지지 않은 오더 제외하여 파악)
 ○ On-time : 납품요청일자(계획납품일자) -a일 ~ 납품요청일자(계획납품일자) 당일 까지 포함되는 건
-    (예외: 국내 제주도, 산간지방 +2 일 / Deep sea(해상운송) +5일)
+    (예외: 국내 당일배송 / 해외 (비행기) +1일, 본사는 서울)
     Early : on-time 보다 이전에 납품실제일자 발생 건
     Late : on-time 이후 납품실제일자 발생 건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>○ (시간 실적 on-time, early, late / 고객, 제품별 필터링)
-○ 수량 차이 수 = 납품수량 - 납품실제수량
+    <t>○ 납품 계획일자는 오더에서 가져옴
+○ 예외: 국내 당일배송 / 해외 (비행기) +1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 납품실제수량 : 납품문서 내 납품실제수량 (납품문서 단위) = 빌링완료수량</t>
+  </si>
+  <si>
+    <t>○ 판매수량 : 판매오더 내 판매수량 (판매오더 단위)</t>
+  </si>
+  <si>
+    <t>○ 지연율 (%)(문서기준) : Late 문서 건 수 총합 / 판매오더 문서 건 수 총합  * 100	
+    납기 시간조건 실적 Late 인 문서 건수 대비 전체 문서 건수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 수량 차이 수  : 판매오더 기준수량 - 납품실제수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">○ (시간 실적 on-time, early, late / 고객, 제품별 필터링)
+○ 수량 차이 수 = 납품수량 - 납품실제수량 ('수량차이 수' 값을 기준으로 (판매수량 - 납품실제수량))
 ○ 수량 차이 수 &lt; 0	  MORE
 ○ 수량 차이 수 = 0	  EQUAL
-○ 수량 차이 수 &gt; 0	  LESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매제품별 판매단가 인상/인하율 분석 및 목표 판매 계획 수립</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ 자사의 목표 매출액 산정 및 세부적으로 목표 매출액 및 목표 계획 제시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ 분석 Dimension : 제품군 (자재 마스터 내 제품군), 외부데이터 사용
+○ 수량 차이 수 &gt; 0	  LESS
+○ 납기적중률 (%) (수량 기준): 실제납품수량(ON-TIME) / 납품실제수량(실제 납품일자가 있는 건만 ) * 100  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ (시간 실적 on-time, early, late / 고객, 제품별 필터링)
+○ 일자지연 수 : 납품실제일자 - 납품요청일자 (- 예외 일수) 
+○ 일자 지연 수 &lt; 0	  LATE
+○ 일자 지연 수 = 0	  ON-TIME
+○ 일자 지연 수 &gt; 0	  EARLY
+○납기적중률 (%)(문서기준) : Early 중 2일이내인 경우 On-time으로 간주하여 적중률을 계산 
+   On-time 문서 건 수 총합 / 납품 문서 건 수 총합 * 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 납기적중률 (시간) : '일자지연 수' 값을 기준으로 (판매계획일자 - 납품실제일자) 가 음수이면 Late, +a 일 일 경우 On-time, 그 이상은 Early로 구분하여 표현
+○ 납기적중률 (수량) : '납품수량적중률' 지표 값을 활용하여 Equal, less, more 구분하여 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 고객, 자재별 필터링 
+○ 년, 분기 월별 필터링 
+○ 자재별 납기 수량 적중률 
+○ 자재별 납기 시간 적중률 
+○ 자재별 지연율
+○ 고객별 납기 수량 적중률
+○ 고객별 납기 시간 적중률
+○ 고객별 지연율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 매출액/판매수량 설정 1 -&gt; 전년도 매출실적 * (1 + 예상판매증가율)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객별 판매현황</t>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 소스는 SAP 대금청구서조회(VF03) 화면에서 추출하여 고객별 판매현황 기준으로 설정                              </t>
+  </si>
+  <si>
+    <t>○ ERP 시스템에서 MM에서 제품군데이터, 대금청구서의 매출액 데이터 추출
+○ 타사비교 자료는 엑셀로 사용 : 타사 제품군, 타사 제품군별 매출액</t>
+  </si>
+  <si>
+    <t>1) 매출구조의 트렌드</t>
+  </si>
+  <si>
+    <t>매출액 성장률 : 기준기간 매출액 - 비교기간 매출액 / 비교기간 매출액 * 100  
+매출액 점유율 : 기준기간 기준정보 매출액 / 기준기간 기준정보 총 매출액</t>
+  </si>
+  <si>
+    <t>○ 매출액 : 대금청구서 기준 매출액 / 매출수량: 대금청구서의 기본 단위로 수량계산
+○ 기준기간 매출액 : 전년 / 전분기 / 전월 별 매출액</t>
+  </si>
+  <si>
+    <t>분석 Demension</t>
+  </si>
+  <si>
+    <t>○ 분석 Dimension : 제품군 (자재 마스터 내 제품군), 대금청구달력년월, 대금청구달력년분기, 대금청구달력년, 통화
+고객, 자재, 대금청구서번호, 대금청구서품목번호, 고객연락처, 고객주소, 고객국가, 대금청구달력년, 대금청구달력년분기, 대금청구달력년월, 실제 / 계획 구분자,  대금청구수량단위,  통화
 ○ 판매오더 년별, 분기별, 월별로 세분화
 ○ 기준정보 제품별, 고객별로 세분화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 대금청구액 통화는 USD
+○ 제품별/고객별 년, 분기, 월별 매출액 변화 추이
+○ 성장률이 - 라면 빨간색으로 표시</t>
+  </si>
+  <si>
+    <t>DashBoard</t>
+  </si>
+  <si>
+    <t>○ 기준정보(제품 및 고객) 카테고리 분류 필터링
+○ 제품별/고객별 년, 분기, 월별 매출액 변화 추이
+○ 제품별/고객별 년, 분기, 월별 매출액 성장, 점유율</t>
   </si>
 </sst>
 </file>
@@ -695,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,62 +718,68 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,63 +1102,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F40"/>
+  <dimension ref="B2:F36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7265625" customWidth="1"/>
-    <col min="4" max="4" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="108.36328125" customWidth="1"/>
-    <col min="7" max="9" width="9.08984375" customWidth="1"/>
+    <col min="3" max="3" width="43.75" customWidth="1"/>
+    <col min="4" max="4" width="31.9375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="108.375" customWidth="1"/>
+    <col min="7" max="9" width="9.0625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="17.5">
+    <row r="2" spans="2:6" ht="17.649999999999999">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="14">
+    <row r="4" spans="2:6" ht="13.9">
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6" ht="14.5" thickBot="1">
+    <row r="5" spans="2:6" ht="14.25" thickBot="1">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="15.5" thickBot="1">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="2:6" ht="13.15">
+      <c r="B7" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1173,14 +1168,14 @@
         <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="39">
-      <c r="B8" s="23"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="39.4">
+      <c r="B8" s="22"/>
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1191,11 +1186,11 @@
         <v>20</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B9" s="24"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1206,357 +1201,323 @@
         <v>22</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="26.25">
+      <c r="B10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="26.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="65.650000000000006">
+      <c r="B12" s="16"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="39.4">
+      <c r="B13" s="16"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="39.4">
+      <c r="B14" s="16"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="26.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="26">
-      <c r="B10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="F15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="105">
+      <c r="B16" s="16"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="26.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="6" t="s">
+    </row>
+    <row r="18" spans="2:6" ht="13.9">
+      <c r="B18" s="16"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="26">
-      <c r="B11" s="18"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26" t="s">
+    <row r="19" spans="2:6" ht="13.9">
+      <c r="B19" s="16"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="13.05" customHeight="1">
+      <c r="B20" s="16"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="6" t="s">
+    </row>
+    <row r="21" spans="2:6" ht="78.75">
+      <c r="B21" s="16"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="13.05" customHeight="1">
+      <c r="B22" s="16"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="2:6" ht="32.75" customHeight="1">
+      <c r="B23" s="16"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="6" t="s">
+    </row>
+    <row r="24" spans="2:6" ht="99" customHeight="1">
+      <c r="B24" s="16"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="39.4">
+      <c r="B25" s="16"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="39.4">
+      <c r="B26" s="16"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="117.4" customHeight="1">
+      <c r="B27" s="16"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="26.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="13.05" hidden="1" customHeight="1">
+      <c r="B29" s="16"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="13.05" customHeight="1">
+      <c r="B30" s="16"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="52.5">
+      <c r="B31" s="16"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="105">
+      <c r="B32" s="16"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="39.4">
+      <c r="B33" s="16"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="39.4">
+      <c r="B34" s="16"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="39.4">
+      <c r="B35" s="16"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="65">
-      <c r="B12" s="18"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="39">
-      <c r="B13" s="18"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="39">
-      <c r="B14" s="18"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="4" t="s">
+    <row r="36" spans="2:6" ht="13.9">
+      <c r="B36" s="17"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="26">
-      <c r="B15" s="18"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="104">
-      <c r="B16" s="18"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="26">
-      <c r="B17" s="18"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="14">
-      <c r="B18" s="18"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" ht="14">
-      <c r="B19" s="18"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" ht="13" customHeight="1">
-      <c r="B20" s="18"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6" ht="14">
-      <c r="B21" s="18"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="65">
-      <c r="B22" s="18"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="14">
-      <c r="B23" s="18"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:6" ht="13" customHeight="1">
-      <c r="B24" s="18"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:6" ht="13" customHeight="1">
-      <c r="B25" s="18"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="13" customHeight="1">
-      <c r="B26" s="18"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="2:6" ht="13" customHeight="1">
-      <c r="B27" s="18"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="52">
-      <c r="B28" s="18"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="13" customHeight="1">
-      <c r="B29" s="18"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="13" customHeight="1">
-      <c r="B30" s="18"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="13" customHeight="1">
-      <c r="B31" s="18"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="13" customHeight="1">
-      <c r="B32" s="18"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="52">
-      <c r="B33" s="18"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="104">
-      <c r="B34" s="18"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="39">
-      <c r="B35" s="18"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="26">
-      <c r="B36" s="18"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="F36" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="26">
-      <c r="B37" s="18"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="39">
-      <c r="B38" s="18"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="39">
-      <c r="B39" s="18"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="14">
-      <c r="B40" s="29"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D30:D40"/>
+    <mergeCell ref="D28:D36"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C10:C40"/>
+    <mergeCell ref="C10:C36"/>
+    <mergeCell ref="D15:D27"/>
     <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D15:D29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
